--- a/inst/rmarkdown/templates/invoice/skeleton/resources/timesheet.xlsx
+++ b/inst/rmarkdown/templates/invoice/skeleton/resources/timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marai\Documents\GitHub\Packages\wihantemplates\inst\rmarkdown\templates\invoicer\skeleton\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marai\Workspace\Packages\wihantemplates\inst\rmarkdown\templates\invoice\skeleton\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCCC756-78A9-427D-8838-A2FFE01803A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F0191F-6BDF-45EF-BA63-3A7CE4A9D330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,23 +33,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Begin</t>
-  </si>
-  <si>
     <t>End</t>
   </si>
   <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -59,9 +50,6 @@
     <t>Z</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
     <t>Activity</t>
   </si>
   <si>
@@ -108,6 +96,12 @@
   </si>
   <si>
     <t>Final quality assurance checks</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
 </sst>
 </file>
@@ -154,12 +148,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -473,403 +464,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>45292</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>45293</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>45294</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.3125</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>45295</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="C5" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>45296</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>45297</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>45298</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>45299</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>45300</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>45301</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>45292</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="E2" s="2">
-        <f>(D2-C2)*24</f>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>45293</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>45302</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D12" s="5">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D3" s="6">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E16" si="0">(D3-C3)*24</f>
-        <v>1.5</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>45294</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.3125</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>45295</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>45303</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="D13" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>45296</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>45304</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D6" s="6">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>45297</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>45305</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>45306</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999911</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>45298</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999911</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>45299</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>1.4999999999999987</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>45300</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999911</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>45301</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.4375</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>45302</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>45303</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.4375</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>45304</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999911</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>45305</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.59375</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0.65625</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>45306</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000018</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>5</v>
+      <c r="E16" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/inst/rmarkdown/templates/invoice/skeleton/resources/timesheet.xlsx
+++ b/inst/rmarkdown/templates/invoice/skeleton/resources/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marai\Workspace\Packages\wihantemplates\inst\rmarkdown\templates\invoice\skeleton\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F0191F-6BDF-45EF-BA63-3A7CE4A9D330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3212B735-5A0A-4458-9B88-00D509A0372C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,58 +50,58 @@
     <t>Z</t>
   </si>
   <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Design new carousel</t>
-  </si>
-  <si>
-    <t>Coordinate lighting installation</t>
-  </si>
-  <si>
-    <t>Review attraction blueprints</t>
-  </si>
-  <si>
-    <t>Install safety barriers</t>
-  </si>
-  <si>
-    <t>Test ride systems</t>
-  </si>
-  <si>
-    <t>Train staff on new attractions</t>
-  </si>
-  <si>
-    <t>Conduct safety inspections</t>
-  </si>
-  <si>
-    <t>Update project management software</t>
-  </si>
-  <si>
-    <t>Coordinate with vendors</t>
-  </si>
-  <si>
-    <t>Finalize attraction signage</t>
-  </si>
-  <si>
-    <t>Prepare presentation for stakeholders</t>
-  </si>
-  <si>
-    <t>Update budget forecasts</t>
-  </si>
-  <si>
-    <t>Manage supply chain logistics</t>
-  </si>
-  <si>
-    <t>Conduct staff training sessions</t>
-  </si>
-  <si>
-    <t>Final quality assurance checks</t>
-  </si>
-  <si>
     <t>Start</t>
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial concept sketches for new attraction area </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site layout planning and space allocation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental impact assessment of new structures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Character meet-and-greet zone design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic flow analysis for expanded visitor capacity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facade detailing for themed restaurant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water feature integration planning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lighting design for nighttime operations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visitor experience impact study for construction period </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foundation assessment for main attraction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest flow optimization for new pathways </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theming coordination with creative team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessibility compliance review </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety protocol documentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final design review with client </t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,16 +483,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -500,7 +500,7 @@
         <v>45292</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5">
         <v>0.33333333333333331</v>
@@ -514,10 +514,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5">
         <v>0.38541666666666669</v>
@@ -534,7 +534,7 @@
         <v>45294</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5">
         <v>0.3125</v>
@@ -548,10 +548,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5">
         <v>0.41666666666666669</v>
@@ -568,7 +568,7 @@
         <v>45296</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5">
         <v>0.54166666666666663</v>
@@ -585,7 +585,7 @@
         <v>45297</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5">
         <v>0.625</v>
@@ -602,7 +602,7 @@
         <v>45298</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5">
         <v>0.35416666666666669</v>
@@ -619,7 +619,7 @@
         <v>45299</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5">
         <v>0.44791666666666669</v>
@@ -633,10 +633,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5">
         <v>0.58333333333333337</v>
@@ -653,7 +653,7 @@
         <v>45301</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5">
         <v>0.375</v>
@@ -670,7 +670,7 @@
         <v>45302</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5">
         <v>0.32291666666666669</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>45303</v>
+        <v>45302</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5">
         <v>0.4375</v>
@@ -701,10 +701,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>45304</v>
+        <v>45302</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="5">
         <v>0.5</v>
@@ -721,7 +721,7 @@
         <v>45305</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5">
         <v>0.59375</v>
@@ -738,7 +738,7 @@
         <v>45306</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5">
         <v>0.66666666666666663</v>
@@ -752,5 +752,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>